--- a/biology/Histoire de la zoologie et de la botanique/Walter_Migula/Walter_Migula.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Migula/Walter_Migula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Emil Friedrich August Migula, né le 4 novembre 1863 à Zyrowa (province de Silésie, dans l'arrondissement de Groß Strehlitz (de)), dans le royaume de Prusse, mort le 23 juin 1938 à Eisenach, est un botaniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l'université de Breslau, où il obtint son doctorat en 1888, il enseigne à l'université de Karlsruhe à partir de 1893, en tant que professeur vacataire. Puis, de 1904 à 1915, il enseigne à l'École forestière d'Eisenach, comme professeur titulaire.
 Aux côtés de publications de travaux scientifiques concernant les cryptogames et les bactéries, il vulgarisa également la biologie végétale et collabora à la seconde édition de Flora von Deutschland, Österreich und der Schweiz (1903) d'Otto Wilhelm Thomé (1840-1925).
@@ -543,7 +557,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Morphologie, Anatomie und Physiologie der Pflanzen - 2., verb. Aufl. - Leipzig : Goeschen, 1906</t>
         </is>
